--- a/reports/lib count.xlsx
+++ b/reports/lib count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klebe\OneDrive\Profissional\Projetos\_Altium_Library\altium_library_v1.0\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klebe\OneDrive\Profissional\Projetos\_Altium_Library\altium-library\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="12_ncr:500000_{D9AA4754-B1A0-4CAC-861A-95ED1F5AC749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{060BA3FD-046A-432C-9057-041D8E2E6FB6}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="12_ncr:500000_{D9AA4754-B1A0-4CAC-861A-95ED1F5AC749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{423A804E-585E-4DE2-A41F-EEF2D61DD433}"/>
   <bookViews>
-    <workbookView xWindow="36120" yWindow="2985" windowWidth="17280" windowHeight="8970" xr2:uid="{327A960F-A1E3-4E1D-AD1A-62A0D385EF35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{327A960F-A1E3-4E1D-AD1A-62A0D385EF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -521,7 +523,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D6" s="5">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -680,10 +682,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -791,11 +793,11 @@
       </c>
       <c r="C25" s="2">
         <f>SUM(C3:C24)</f>
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(D3:D24)</f>
-        <v>452</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
